--- a/natmiOut/OldD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H2">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I2">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J2">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.62911185180581</v>
+        <v>3.652835333333333</v>
       </c>
       <c r="N2">
-        <v>1.62911185180581</v>
+        <v>10.958506</v>
       </c>
       <c r="O2">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="P2">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="Q2">
-        <v>78.32420256369439</v>
+        <v>222.4693109509838</v>
       </c>
       <c r="R2">
-        <v>78.32420256369439</v>
+        <v>2002.223798558854</v>
       </c>
       <c r="S2">
-        <v>0.03085989153842447</v>
+        <v>0.06966457605385391</v>
       </c>
       <c r="T2">
-        <v>0.03085989153842447</v>
+        <v>0.06966457605385391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H3">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I3">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J3">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46597226103132</v>
+        <v>2.483777</v>
       </c>
       <c r="N3">
-        <v>2.46597226103132</v>
+        <v>7.451331</v>
       </c>
       <c r="O3">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652284</v>
       </c>
       <c r="P3">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652286</v>
       </c>
       <c r="Q3">
-        <v>118.5586555492639</v>
+        <v>151.2699334414477</v>
       </c>
       <c r="R3">
-        <v>118.5586555492639</v>
+        <v>1361.429400973029</v>
       </c>
       <c r="S3">
-        <v>0.04671234601100977</v>
+        <v>0.04736903143110377</v>
       </c>
       <c r="T3">
-        <v>0.04671234601100977</v>
+        <v>0.04736903143110378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H4">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I4">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J4">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4053296750111</v>
+        <v>19.026879</v>
       </c>
       <c r="N4">
-        <v>18.4053296750111</v>
+        <v>57.080637</v>
       </c>
       <c r="O4">
-        <v>0.8179996087428064</v>
+        <v>0.7561303297684949</v>
       </c>
       <c r="P4">
-        <v>0.8179996087428064</v>
+        <v>0.756130329768495</v>
       </c>
       <c r="Q4">
-        <v>884.8887620080866</v>
+        <v>1158.797557078787</v>
       </c>
       <c r="R4">
-        <v>884.8887620080866</v>
+        <v>10429.17801370908</v>
       </c>
       <c r="S4">
-        <v>0.348647931613901</v>
+        <v>0.3628686590570764</v>
       </c>
       <c r="T4">
-        <v>0.348647931613901</v>
+        <v>0.3628686590570765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H5">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I5">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J5">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.62911185180581</v>
+        <v>3.652835333333333</v>
       </c>
       <c r="N5">
-        <v>1.62911185180581</v>
+        <v>10.958506</v>
       </c>
       <c r="O5">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="P5">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="Q5">
-        <v>82.36834801081696</v>
+        <v>187.849548250364</v>
       </c>
       <c r="R5">
-        <v>82.36834801081696</v>
+        <v>1690.645934253276</v>
       </c>
       <c r="S5">
-        <v>0.03245329288537498</v>
+        <v>0.05882366014813114</v>
       </c>
       <c r="T5">
-        <v>0.03245329288537498</v>
+        <v>0.05882366014813114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H6">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I6">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J6">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.46597226103132</v>
+        <v>2.483777</v>
       </c>
       <c r="N6">
-        <v>2.46597226103132</v>
+        <v>7.451331</v>
       </c>
       <c r="O6">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652284</v>
       </c>
       <c r="P6">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652286</v>
       </c>
       <c r="Q6">
-        <v>124.6802428921624</v>
+        <v>127.729926160914</v>
       </c>
       <c r="R6">
-        <v>124.6802428921624</v>
+        <v>1149.569335448226</v>
       </c>
       <c r="S6">
-        <v>0.04912426359537603</v>
+        <v>0.03999765683344373</v>
       </c>
       <c r="T6">
-        <v>0.04912426359537603</v>
+        <v>0.03999765683344374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H7">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I7">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J7">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4053296750111</v>
+        <v>19.026879</v>
       </c>
       <c r="N7">
-        <v>18.4053296750111</v>
+        <v>57.080637</v>
       </c>
       <c r="O7">
-        <v>0.8179996087428064</v>
+        <v>0.7561303297684949</v>
       </c>
       <c r="P7">
-        <v>0.8179996087428064</v>
+        <v>0.756130329768495</v>
       </c>
       <c r="Q7">
-        <v>930.5785838122057</v>
+        <v>978.4702289064778</v>
       </c>
       <c r="R7">
-        <v>930.5785838122057</v>
+        <v>8806.2320601583</v>
       </c>
       <c r="S7">
-        <v>0.3666498122476481</v>
+        <v>0.306400525028397</v>
       </c>
       <c r="T7">
-        <v>0.3666498122476481</v>
+        <v>0.3064005250283971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H8">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I8">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J8">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.62911185180581</v>
+        <v>3.652835333333333</v>
       </c>
       <c r="N8">
-        <v>1.62911185180581</v>
+        <v>10.958506</v>
       </c>
       <c r="O8">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="P8">
-        <v>0.0724036396470914</v>
+        <v>0.1451640905049821</v>
       </c>
       <c r="Q8">
-        <v>23.07210494951932</v>
+        <v>53.25326050127489</v>
       </c>
       <c r="R8">
-        <v>23.07210494951932</v>
+        <v>479.2793445114739</v>
       </c>
       <c r="S8">
-        <v>0.009090455223291953</v>
+        <v>0.01667585430299708</v>
       </c>
       <c r="T8">
-        <v>0.009090455223291953</v>
+        <v>0.01667585430299708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H9">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I9">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J9">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46597226103132</v>
+        <v>2.483777</v>
       </c>
       <c r="N9">
-        <v>2.46597226103132</v>
+        <v>7.451331</v>
       </c>
       <c r="O9">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652284</v>
       </c>
       <c r="P9">
-        <v>0.1095967516101021</v>
+        <v>0.09870557972652286</v>
       </c>
       <c r="Q9">
-        <v>34.9240420453954</v>
+        <v>36.21001538204433</v>
       </c>
       <c r="R9">
-        <v>34.9240420453954</v>
+        <v>325.8901384383989</v>
       </c>
       <c r="S9">
-        <v>0.01376014200371634</v>
+        <v>0.01133889146197534</v>
       </c>
       <c r="T9">
-        <v>0.01376014200371634</v>
+        <v>0.01133889146197534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H10">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I10">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J10">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4053296750111</v>
+        <v>19.026879</v>
       </c>
       <c r="N10">
-        <v>18.4053296750111</v>
+        <v>57.080637</v>
       </c>
       <c r="O10">
-        <v>0.8179996087428064</v>
+        <v>0.7561303297684949</v>
       </c>
       <c r="P10">
-        <v>0.8179996087428064</v>
+        <v>0.756130329768495</v>
       </c>
       <c r="Q10">
-        <v>260.6633162858953</v>
+        <v>277.3854421158969</v>
       </c>
       <c r="R10">
-        <v>260.6633162858953</v>
+        <v>2496.468979043073</v>
       </c>
       <c r="S10">
-        <v>0.1027018648812572</v>
+        <v>0.0868611456830214</v>
       </c>
       <c r="T10">
-        <v>0.1027018648812572</v>
+        <v>0.08686114568302142</v>
       </c>
     </row>
   </sheetData>
